--- a/csv/Insights.xlsx
+++ b/csv/Insights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jannarellano\flights\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4899F63E-80F1-4F43-A4F1-0E1A0949EB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E1ECA5-2C45-442D-87D3-6177C7DA358C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" xr2:uid="{3A4D12D0-312C-4722-8997-FDFB29121A12}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{3A4D12D0-312C-4722-8997-FDFB29121A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,12 +173,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -194,10 +200,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -516,7 +525,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -646,47 +655,47 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>12</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <f>436 + 378</f>
         <v>814</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>67.833333333333329</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>13</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <f>436 + 471</f>
         <v>907</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>69.769230769230774</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -806,47 +815,47 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>10</v>
       </c>
-      <c r="D13" s="1">
-        <f>391 + 248</f>
-        <v>639</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>63.9</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="D13" s="4">
+        <f>206+53+66+60+0+79+60+71+53+40</f>
+        <v>688</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>68.8</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1">
-        <f>391 + 268</f>
-        <v>659</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>59.909090909090907</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="C14" s="3">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4">
+        <f>206+53+66+60+0+79+60+71+60+53</f>
+        <v>708</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>70.8</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>35</v>
       </c>
     </row>
